--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/Equipments.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/Equipments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EBC5E0-9B2A-47DB-A224-2CBB826D46AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506EFACC-6432-421C-969C-2F2F131A9036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{99405EAD-F6D1-40F5-BDCF-ABC9D26463E1}"/>
   </bookViews>
